--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_37.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3784933.326291407</v>
+        <v>3860462.995956211</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7728169.88376706</v>
+        <v>7728169.883767061</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +664,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>70.08503862055971</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>123.2264323245079</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>168.4743637384531</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>128.8014312500952</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,13 +898,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +913,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>315.6201965295094</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>155.3530944798163</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,22 +1101,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>159.9332429020088</v>
+        <v>99.90187484148926</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>286.6138362188083</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>178.4275757735865</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1184,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1193,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1294,7 +1296,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1309,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>39.98015650898421</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1351,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>109.9493368428669</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274066</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1578,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>155.1311709937394</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>171.2589951202372</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1768,10 +1770,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,7 +1782,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1822,13 +1824,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>178.0344873527949</v>
+        <v>198.3672860124722</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1847,10 +1849,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722625</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,19 +2055,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>60.83190844218957</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>27.26009267756289</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274066</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>140.3362936071821</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>3.633341602776929</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,10 +2478,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>12.78917898910513</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2527,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>224.8952567231525</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2716,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2728,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>53.01915563767732</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2770,16 +2772,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>157.9368985456419</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2947,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>109.0513763420216</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>197.9401410224775</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
@@ -3077,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952498009</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3187,25 +3189,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986277</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>99.81947831404906</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836031</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583891</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>176.4214392605171</v>
       </c>
       <c r="X34" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3278,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896916</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3317,7 +3319,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3421,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>33.22448681017318</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836031</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583891</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>203.8435192151937</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.5229983365908</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.709655389037</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896913</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113175</v>
+        <v>305.2872491113185</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274061</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3670,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3709,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836031</v>
+        <v>195.8155841663236</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583891</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>203.8435192151937</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.709655389037</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T41" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986277</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229311</v>
+        <v>20.51280387671231</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583891</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>157.0348050617342</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.709655389037</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>411.9645167896913</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113175</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274252</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0785952498009</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819372</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986277</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>23.54872654977717</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985772</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520946</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554.3221432721089</v>
+        <v>1803.3088759247</v>
       </c>
       <c r="C2" t="n">
-        <v>185.3596263316971</v>
+        <v>1434.346358984288</v>
       </c>
       <c r="D2" t="n">
-        <v>185.3596263316971</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>185.3596263316971</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>178.4141255824937</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.295728843236</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W2" t="n">
-        <v>1704.527073573122</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="X2" t="n">
-        <v>1331.061315312042</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="Y2" t="n">
-        <v>940.9219833362306</v>
+        <v>2189.908715988822</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5356891811371</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>365.6939024587812</v>
+        <v>557.9528592180977</v>
       </c>
       <c r="U4" t="n">
-        <v>365.6939024587812</v>
+        <v>557.9528592180977</v>
       </c>
       <c r="V4" t="n">
-        <v>235.5914466506042</v>
+        <v>557.9528592180977</v>
       </c>
       <c r="W4" t="n">
-        <v>235.5914466506042</v>
+        <v>268.5356891811371</v>
       </c>
       <c r="X4" t="n">
-        <v>235.5914466506042</v>
+        <v>268.5356891811371</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.5914466506042</v>
+        <v>268.5356891811371</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1705.877315537684</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="C5" t="n">
-        <v>1336.914798597272</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="D5" t="n">
-        <v>1336.914798597272</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E5" t="n">
-        <v>951.1265459990282</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>540.1406412094207</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>526.2172371480116</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,7 +4570,7 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4601,16 +4603,16 @@
         <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2309.020596206506</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>1956.251940936392</v>
       </c>
       <c r="X5" t="n">
-        <v>2092.477155601806</v>
+        <v>1582.786182675312</v>
       </c>
       <c r="Y5" t="n">
-        <v>2092.477155601806</v>
+        <v>1192.6468506995</v>
       </c>
     </row>
     <row r="6">
@@ -4620,73 +4622,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>389.0166762901907</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U7" t="n">
-        <v>389.0166762901907</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>389.0166762901907</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2069.921547395234</v>
+        <v>721.7790530572497</v>
       </c>
       <c r="C8" t="n">
-        <v>1780.41262192169</v>
+        <v>721.7790530572497</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>721.7790530572497</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>721.7790530572497</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>714.8335523080463</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224075</v>
@@ -4820,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>2443.387305656314</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W8" t="n">
-        <v>2443.387305656314</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="X8" t="n">
-        <v>2069.921547395234</v>
+        <v>1498.518225097183</v>
       </c>
       <c r="Y8" t="n">
-        <v>2069.921547395234</v>
+        <v>1108.378893121371</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4880,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>477.919485916526</v>
+        <v>587.6521288551403</v>
       </c>
       <c r="C10" t="n">
-        <v>308.9833029886191</v>
+        <v>418.7159459272334</v>
       </c>
       <c r="D10" t="n">
-        <v>308.9833029886191</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="E10" t="n">
-        <v>308.9833029886191</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="F10" t="n">
-        <v>308.9833029886191</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G10" t="n">
-        <v>139.9835027269515</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>139.9835027269515</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
         <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>587.6521288551403</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600561</v>
+        <v>587.6521288551403</v>
       </c>
       <c r="Y10" t="n">
-        <v>477.919485916526</v>
+        <v>587.6521288551403</v>
       </c>
     </row>
     <row r="11">
@@ -5015,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822461</v>
       </c>
       <c r="I11" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5057,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5069,22 +5071,22 @@
         <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5118,22 +5120,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
         <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>1163.495507227045</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M12" t="n">
-        <v>1470.815640507006</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>1800.678268171039</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>2080.218333389736</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>247.3337308726216</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="C13" t="n">
-        <v>247.3337308726216</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5224,25 +5226,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1231.143014600799</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1007.357599390305</v>
       </c>
       <c r="U13" t="n">
-        <v>675.007103038344</v>
+        <v>1007.357599390305</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324571</v>
+        <v>1007.357599390305</v>
       </c>
       <c r="W13" t="n">
-        <v>247.3337308726216</v>
+        <v>1007.357599390305</v>
       </c>
       <c r="X13" t="n">
-        <v>247.3337308726216</v>
+        <v>779.3680484922876</v>
       </c>
       <c r="Y13" t="n">
-        <v>247.3337308726216</v>
+        <v>558.5754693487575</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,34 +5263,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5318,10 +5320,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5358,22 +5360,22 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1029.666285013068</v>
+        <v>581.2185435662825</v>
       </c>
       <c r="C16" t="n">
-        <v>860.7301020851612</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D16" t="n">
-        <v>710.6134626728254</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E16" t="n">
-        <v>562.7003690904323</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5461,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V16" t="n">
-        <v>1319.083455050029</v>
+        <v>1098.625264501261</v>
       </c>
       <c r="W16" t="n">
-        <v>1029.666285013068</v>
+        <v>809.2080944642998</v>
       </c>
       <c r="X16" t="n">
-        <v>1029.666285013068</v>
+        <v>581.2185435662825</v>
       </c>
       <c r="Y16" t="n">
-        <v>1029.666285013068</v>
+        <v>581.2185435662825</v>
       </c>
     </row>
     <row r="17">
@@ -5507,16 +5509,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,16 +5527,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014293</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E18" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>2375.989236263799</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>2786.879505108312</v>
       </c>
       <c r="L18" t="n">
-        <v>1024.771599890052</v>
+        <v>3128.721707800139</v>
       </c>
       <c r="M18" t="n">
-        <v>1332.091733170013</v>
+        <v>3436.041841080101</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>3765.904468744134</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>4045.444533962831</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>4565.745155698579</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R18" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S18" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T18" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U18" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W18" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X18" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y18" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="19">
@@ -5647,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>503.5547239186419</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>503.5547239186419</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>503.5547239186419</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>355.6416303362488</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>1075.21084526296</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V19" t="n">
-        <v>1013.764473099133</v>
+        <v>755.1831334811264</v>
       </c>
       <c r="W19" t="n">
-        <v>724.347303062172</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X19" t="n">
-        <v>724.347303062172</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y19" t="n">
-        <v>503.5547239186419</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5741,28 +5743,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643324</v>
@@ -5771,10 +5773,10 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5783,19 +5785,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5817,25 +5819,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619858</v>
+        <v>891.4406401619851</v>
       </c>
       <c r="M21" t="n">
         <v>1198.760773441947</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>825.3747459653034</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>825.3747459653034</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>675.2581065529677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5914,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1046.167325108833</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U22" t="n">
-        <v>1046.167325108833</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V22" t="n">
-        <v>1046.167325108833</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W22" t="n">
-        <v>1046.167325108833</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X22" t="n">
-        <v>1046.167325108833</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y22" t="n">
-        <v>825.3747459653034</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -5999,7 +6001,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6011,28 +6013,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6054,37 +6056,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341673</v>
+        <v>659.3731057211722</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>966.693239001134</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1771.104817265285</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>260.2520934878793</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
         <v>97.21709146028584</v>
@@ -6151,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609664</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V25" t="n">
-        <v>731.3177283550796</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W25" t="n">
-        <v>441.900558318119</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X25" t="n">
-        <v>441.900558318119</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y25" t="n">
-        <v>441.900558318119</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6212,40 +6214,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6257,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6291,31 +6293,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341673</v>
+        <v>891.4406401619851</v>
       </c>
       <c r="M27" t="n">
-        <v>841.8631140141288</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N27" t="n">
-        <v>1171.725741678162</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O27" t="n">
         <v>1808.163466324677</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>377.6878657662453</v>
+        <v>566.6879222525852</v>
       </c>
       <c r="C28" t="n">
-        <v>208.7516828383384</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="D28" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E28" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F28" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6388,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1334.286464455408</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1110.501049244914</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609664</v>
+        <v>821.372410458472</v>
       </c>
       <c r="V28" t="n">
-        <v>986.0022165609664</v>
+        <v>566.6879222525852</v>
       </c>
       <c r="W28" t="n">
-        <v>826.4699958077928</v>
+        <v>566.6879222525852</v>
       </c>
       <c r="X28" t="n">
-        <v>598.4804449097754</v>
+        <v>566.6879222525852</v>
       </c>
       <c r="Y28" t="n">
-        <v>377.6878657662453</v>
+        <v>566.6879222525852</v>
       </c>
     </row>
     <row r="29">
@@ -6452,13 +6454,13 @@
         <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
@@ -6540,25 +6542,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>570.0299571250974</v>
       </c>
       <c r="L30" t="n">
-        <v>1163.495507227045</v>
+        <v>816.7950850315615</v>
       </c>
       <c r="M30" t="n">
-        <v>1722.015429253975</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1453.977845975556</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>355.2830904386603</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C31" t="n">
-        <v>355.2830904386603</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D31" t="n">
-        <v>245.130185042679</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028584</v>
@@ -6643,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U31" t="n">
-        <v>1275.130855347408</v>
+        <v>1187.901630733387</v>
       </c>
       <c r="V31" t="n">
-        <v>1275.130855347408</v>
+        <v>933.2171425274998</v>
       </c>
       <c r="W31" t="n">
-        <v>985.7136853104475</v>
+        <v>643.7999724905393</v>
       </c>
       <c r="X31" t="n">
-        <v>757.7241344124302</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="Y31" t="n">
-        <v>536.9315552689001</v>
+        <v>415.8104215925219</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
         <v>488.193237080547</v>
@@ -6701,16 +6703,16 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6740,10 +6742,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6777,19 +6779,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L33" t="n">
-        <v>891.4406401619858</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.760773441947</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.62340110598</v>
+        <v>1296.555866665166</v>
       </c>
       <c r="O33" t="n">
         <v>1808.163466324677</v>
@@ -6832,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>525.600959348638</v>
+        <v>527.0436439308535</v>
       </c>
       <c r="C34" t="n">
-        <v>356.6647764207312</v>
+        <v>527.0436439308535</v>
       </c>
       <c r="D34" t="n">
-        <v>356.6647764207312</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E34" t="n">
-        <v>208.7516828383382</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F34" t="n">
-        <v>208.7516828383382</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G34" t="n">
-        <v>208.7516828383382</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383382</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688075</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471197</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6874,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1398.088514685127</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1198.168504600679</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>974.3830893901851</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U34" t="n">
-        <v>974.3830893901851</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V34" t="n">
-        <v>974.3830893901851</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="W34" t="n">
-        <v>974.3830893901851</v>
+        <v>755.0331948288708</v>
       </c>
       <c r="X34" t="n">
-        <v>746.3935384921679</v>
+        <v>527.0436439308535</v>
       </c>
       <c r="Y34" t="n">
-        <v>525.600959348638</v>
+        <v>527.0436439308535</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6926,34 +6928,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -7014,25 +7016,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L36" t="n">
-        <v>1288.32563221405</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M36" t="n">
-        <v>1722.015429253975</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>618.0053231677515</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>449.0691402398446</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>298.9525008275089</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G37" t="n">
         <v>97.21709146028584</v>
@@ -7093,16 +7095,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688075</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471197</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7111,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473456</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.210845262962</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011502</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952635</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W37" t="n">
-        <v>325.206642358303</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>799.6537879979912</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155897</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805472</v>
+        <v>488.1932370805478</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7187,37 +7189,37 @@
         <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341673</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M39" t="n">
-        <v>1302.911127126629</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1771.104817265284</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688075</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471197</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7348,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473456</v>
+        <v>1301.12275119798</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.210845262962</v>
+        <v>1077.337335987485</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011502</v>
+        <v>788.2086972010437</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952635</v>
+        <v>533.5242089951569</v>
       </c>
       <c r="W40" t="n">
-        <v>325.206642358303</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="41">
@@ -7409,13 +7411,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>2375.989236263798</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>2786.879505108311</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>3177.42741301205</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M42" t="n">
-        <v>3484.747546292012</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N42" t="n">
-        <v>4289.159124556162</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O42" t="n">
-        <v>4568.699189774859</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>4773.721670557069</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>413.0432218861029</v>
+        <v>527.8027887886592</v>
       </c>
       <c r="C43" t="n">
-        <v>244.1070389581961</v>
+        <v>527.8027887886592</v>
       </c>
       <c r="D43" t="n">
-        <v>244.1070389581961</v>
+        <v>527.8027887886592</v>
       </c>
       <c r="E43" t="n">
-        <v>244.1070389581961</v>
+        <v>379.8896952062661</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688075</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799369</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471198</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>1049.608084974668</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980065</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585748</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557904</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557904</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.13085534741</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U43" t="n">
-        <v>1275.13085534741</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V43" t="n">
-        <v>1020.446367141523</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="W43" t="n">
-        <v>861.8253519276501</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="X43" t="n">
-        <v>633.8358010296329</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="Y43" t="n">
-        <v>413.0432218861029</v>
+        <v>709.4512536188989</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155903</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805486</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382248</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
@@ -7664,13 +7666,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,19 +7681,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7722,25 +7724,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>289.939866862715</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>121.0036839348082</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>121.0036839348082</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>121.0036839348082</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>121.0036839348082</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688075</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799369</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471198</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>1049.608084974668</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980065</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585748</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557904</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557904</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771462</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V46" t="n">
-        <v>1209.787631771462</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W46" t="n">
-        <v>920.3704617345018</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>692.3809108364845</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y46" t="n">
-        <v>471.5883316929546</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627882</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8547,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>275.0442842992669</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8772,7 +8774,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>43.6598726146251</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,25 +9008,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9185,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9246,7 +9248,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>230.7151863772036</v>
+        <v>96.03744927814472</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9404,7 +9406,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504515</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9419,7 +9421,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>212.314990659903</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9483,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>96.03744927814716</v>
+        <v>96.03744927814625</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9501,7 +9503,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9714,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9723,22 +9725,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>73.53204524669951</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9878,7 +9880,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504486</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9954,10 +9956,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>96.03744927814625</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,7 +9968,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>360.5026862907258</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -9975,7 +9977,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>159.0121003135246</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>253.7371603504737</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10425,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10440,7 +10442,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10662,16 +10664,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>127.6461250100648</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10680,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10835,7 +10837,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627466</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10908,19 +10910,19 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>423.3376789165117</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>73.53204524670076</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11078,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11139,19 +11141,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>145.2351313103783</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>124.3400780863229</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11160,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11312,7 +11314,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714841</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,10 +11378,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>234.4116509503166</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23466,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>42.78963898986382</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>115.2640032163538</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,10 +23658,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23701,7 +23703,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -23710,13 +23712,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>74.10315597103309</v>
+        <v>53.77035731135584</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23896,10 +23898,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23908,7 +23910,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,19 +23943,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>191.3057348816384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>259.2629056590281</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>81.21126745120719</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>282.8896567338141</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>154.4576421095227</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24415,10 +24417,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>61.34209567542487</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24616,10 +24618,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>144.9016543459259</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>128.5860997909491</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>39.5640966761908</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24883,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>88.29721137609982</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633774</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.913828367536</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>10.1448740897436</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985772</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.1376433238279</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.5229983365908</v>
+        <v>110.1015590760739</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819372</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986277</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>113.209475836396</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633774</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.913828367536</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>82.39383318338349</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25558,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633774</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.913828367536</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>2.105225817279688</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>82.39383318338349</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819372</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>124.9082441462189</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633774</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.913828367536</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.4192454642718</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037926</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836031</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985772</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>129.4881932748566</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26032,16 +26034,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>142.9448419136003</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.913828367536</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.4192454642718</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037926</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836031</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583891</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.1376433238279</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>659455.824498083</v>
+        <v>659455.8244980831</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>659455.8244980831</v>
+        <v>659455.824498083</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>659455.8244980831</v>
+        <v>659455.824498083</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>659455.8244980831</v>
+        <v>659455.824498083</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>659455.8244980832</v>
+        <v>659455.8244980831</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>659455.824498083</v>
+        <v>659455.8244980831</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>659455.8244980831</v>
+        <v>659455.824498083</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>659455.8244980831</v>
+        <v>659455.824498083</v>
       </c>
     </row>
   </sheetData>
@@ -26311,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244622</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244622</v>
       </c>
       <c r="D2" t="n">
         <v>759463.6371244623</v>
       </c>
       <c r="E2" t="n">
-        <v>723403.7605147619</v>
+        <v>723403.7605147617</v>
       </c>
       <c r="F2" t="n">
-        <v>723403.7605147618</v>
+        <v>723403.7605147611</v>
       </c>
       <c r="G2" t="n">
-        <v>723403.7605147614</v>
+        <v>723403.7605147616</v>
       </c>
       <c r="H2" t="n">
         <v>723403.7605147614</v>
       </c>
       <c r="I2" t="n">
-        <v>723403.7605147616</v>
+        <v>723403.7605147613</v>
       </c>
       <c r="J2" t="n">
-        <v>723403.7605147616</v>
+        <v>723403.7605147614</v>
       </c>
       <c r="K2" t="n">
         <v>723403.7605147612</v>
@@ -26344,16 +26346,16 @@
         <v>723403.7605147613</v>
       </c>
       <c r="M2" t="n">
-        <v>723403.7605147614</v>
+        <v>723403.7605147611</v>
       </c>
       <c r="N2" t="n">
+        <v>723403.7605147613</v>
+      </c>
+      <c r="O2" t="n">
         <v>723403.7605147617</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>723403.7605147612</v>
-      </c>
-      <c r="P2" t="n">
-        <v>723403.7605147614</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.66962143912</v>
+        <v>15045.66962143915</v>
       </c>
       <c r="F4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="K4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
-        <v>15045.66962143918</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
-        <v>15045.66962143917</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
-        <v>15045.66962143925</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="O4" t="n">
-        <v>15045.66962143915</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="P4" t="n">
-        <v>15045.66962143925</v>
+        <v>15045.6696214391</v>
       </c>
     </row>
     <row r="5">
@@ -26473,43 +26475,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-70138.27840471419</v>
+        <v>-70138.27840471434</v>
       </c>
       <c r="C6" t="n">
-        <v>519829.6008098302</v>
+        <v>519829.6008098301</v>
       </c>
       <c r="D6" t="n">
         <v>519829.6008098302</v>
       </c>
       <c r="E6" t="n">
-        <v>91210.72846771001</v>
+        <v>91210.72846770973</v>
       </c>
       <c r="F6" t="n">
-        <v>616370.7649446061</v>
+        <v>616370.7649446054</v>
       </c>
       <c r="G6" t="n">
-        <v>616370.7649446058</v>
+        <v>616370.7649446056</v>
       </c>
       <c r="H6" t="n">
         <v>616370.7649446058</v>
       </c>
       <c r="I6" t="n">
-        <v>616370.7649446059</v>
+        <v>616370.7649446056</v>
       </c>
       <c r="J6" t="n">
-        <v>439947.545752013</v>
+        <v>439947.5457520129</v>
       </c>
       <c r="K6" t="n">
-        <v>616370.7649446055</v>
+        <v>616370.7649446056</v>
       </c>
       <c r="L6" t="n">
-        <v>616370.7649446055</v>
+        <v>616370.7649446056</v>
       </c>
       <c r="M6" t="n">
-        <v>481569.7497107685</v>
+        <v>481569.7497107683</v>
       </c>
       <c r="N6" t="n">
-        <v>616370.7649446058</v>
+        <v>616370.7649446056</v>
       </c>
       <c r="O6" t="n">
-        <v>616370.7649446054</v>
+        <v>616370.764944606</v>
       </c>
       <c r="P6" t="n">
         <v>616370.7649446055</v>
@@ -26692,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26735,31 +26737,31 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
-      </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26774,10 +26776,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26972,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27384,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>284.5980030001232</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>290.5577376962871</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,22 +27584,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>56.56074171963118</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>123.3362120737328</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>8.302576234847777</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,16 +27675,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>172.3991639903186</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27795,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>65.10186255607545</v>
+        <v>125.133230616595</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>78.65905555219928</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>235.3565942472084</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28029,7 +28031,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>94.98546528335402</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28071,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>176.5736614937241</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28819,7 +28821,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32224,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32412,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307148</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>296.2227415328944</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35410,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>345.2951542341712</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>250.7532875461497</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,25 +35728,25 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341714</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>479.9728913332278</v>
+        <v>345.2951542341691</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109082</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502032</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>345.2951542341714</v>
+        <v>345.2951542341706</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>355.8957474878077</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36597,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109055</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341706</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>642.8663885318339</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>309.5875389014639</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>564.1615374009399</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504662</v>
@@ -37160,7 +37162,7 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>516.775353191425</v>
       </c>
       <c r="P33" t="n">
         <v>525.5561835714618</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556567</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.2256999718749</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,16 +37384,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>438.070502060531</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980128</v>
@@ -37400,10 +37402,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556567</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.2256999718749</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37555,7 +37557,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P38" t="n">
         <v>570.6060255109123</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>150.5754385879392</v>
@@ -37628,19 +37630,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>756.5322523145245</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>355.8957474878089</v>
       </c>
       <c r="P39" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556567</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.2256999718749</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37798,10 +37800,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>394.4928362664027</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>434.7644551367891</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556569</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789727</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187492</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38032,13 +38034,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q44" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,22 +38098,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>483.6693559063409</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556569</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789727</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187492</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3860462.995956211</v>
+        <v>3853445.9810645</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7728169.883767061</v>
+        <v>7728169.883767059</v>
       </c>
     </row>
     <row r="11">
@@ -664,19 +664,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>70.08503862055971</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>22.41131318087373</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -712,16 +712,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>168.4743637384531</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>43.31785343914003</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -901,19 +901,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>196.8405671533559</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>155.3530944798163</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1107,16 +1107,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>99.90187484148926</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>178.4275757735865</v>
+        <v>33.61028197134453</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481162</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250816</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229327</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>59.66385641544604</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>109.9493368428669</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274066</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051985</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>155.1311709937394</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>26.05879830605499</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1818,13 +1818,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>198.3672860124722</v>
+        <v>237.3965091869248</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>27.26009267756289</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2098,10 +2098,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274066</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2301,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>3.633341602776929</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>143.3158222056515</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>118.4898845065126</v>
       </c>
       <c r="U25" t="n">
-        <v>224.8952567231525</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2572,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113193</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,19 +2715,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>118.8209292153268</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>53.01915563767732</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>197.9401410224775</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>140.0424879565129</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3043,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>176.4214392605171</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>33.22448681017318</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3520,10 +3520,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113185</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>195.8155841663236</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3906,19 +3906,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>20.51280387671231</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T46" t="n">
-        <v>139.1537278750035</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1803.3088759247</v>
+        <v>978.1437682647402</v>
       </c>
       <c r="C2" t="n">
-        <v>1434.346358984288</v>
+        <v>609.1812513243285</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>250.915552717578</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,7 +4330,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4360,22 +4360,22 @@
         <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2520.971603332393</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>2189.908715988822</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W2" t="n">
-        <v>2189.908715988822</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X2" t="n">
-        <v>2189.908715988822</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="Y2" t="n">
-        <v>2189.908715988822</v>
+        <v>1364.743608328862</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>268.5356891811371</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>557.9528592180977</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>557.9528592180977</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>557.9528592180977</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="W4" t="n">
-        <v>268.5356891811371</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X4" t="n">
-        <v>268.5356891811371</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y4" t="n">
-        <v>268.5356891811371</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4543,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>806.0470106353782</v>
+        <v>631.906440948188</v>
       </c>
       <c r="C5" t="n">
-        <v>806.0470106353782</v>
+        <v>631.906440948188</v>
       </c>
       <c r="D5" t="n">
-        <v>806.0470106353782</v>
+        <v>273.6407423414375</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>273.6407423414375</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>266.695241592234</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>252.7718375308249</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4585,10 +4585,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4603,16 +4603,16 @@
         <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2309.020596206506</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>1956.251940936392</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X5" t="n">
-        <v>1582.786182675312</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y5" t="n">
-        <v>1192.6468506995</v>
+        <v>1018.50628101231</v>
       </c>
     </row>
     <row r="6">
@@ -4622,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4667,28 +4667,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>184.027325963587</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>184.027325963587</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>184.027325963587</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>184.027325963587</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>721.7790530572497</v>
+        <v>944.461475247922</v>
       </c>
       <c r="C8" t="n">
-        <v>721.7790530572497</v>
+        <v>575.4989583075103</v>
       </c>
       <c r="D8" t="n">
-        <v>721.7790530572497</v>
+        <v>575.4989583075103</v>
       </c>
       <c r="E8" t="n">
-        <v>721.7790530572497</v>
+        <v>575.4989583075103</v>
       </c>
       <c r="F8" t="n">
-        <v>714.8335523080463</v>
+        <v>568.5534575583068</v>
       </c>
       <c r="G8" t="n">
         <v>534.603677789272</v>
@@ -4801,55 +4801,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533144</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990286</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.752638628377</v>
+        <v>2388.358616186808</v>
       </c>
       <c r="V8" t="n">
-        <v>2224.752638628377</v>
+        <v>2057.295728843238</v>
       </c>
       <c r="W8" t="n">
-        <v>1871.983983358263</v>
+        <v>1704.527073573124</v>
       </c>
       <c r="X8" t="n">
-        <v>1498.518225097183</v>
+        <v>1331.061315312044</v>
       </c>
       <c r="Y8" t="n">
-        <v>1108.378893121371</v>
+        <v>1331.061315312044</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204944</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.447464661593</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.063382757265</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>587.6521288551403</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="C10" t="n">
-        <v>418.7159459272334</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D10" t="n">
-        <v>268.5993065148977</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>268.5993065148977</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>268.5993065148977</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658212</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502504</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594906</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="W10" t="n">
-        <v>587.6521288551403</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="X10" t="n">
-        <v>587.6521288551403</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Y10" t="n">
-        <v>587.6521288551403</v>
+        <v>728.1289842064349</v>
       </c>
     </row>
     <row r="11">
@@ -5020,22 +5020,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805468</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5044,10 +5044,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5068,22 +5068,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5123,25 +5123,25 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619856</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441947</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>376.9270045185177</v>
+        <v>712.8170085027681</v>
       </c>
       <c r="C13" t="n">
-        <v>376.9270045185177</v>
+        <v>712.8170085027681</v>
       </c>
       <c r="D13" t="n">
-        <v>376.9270045185177</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E13" t="n">
-        <v>376.9270045185177</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F13" t="n">
-        <v>376.9270045185177</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5226,25 +5226,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1231.143014600799</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1007.357599390305</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U13" t="n">
-        <v>1007.357599390305</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V13" t="n">
-        <v>1007.357599390305</v>
+        <v>1161.599138544316</v>
       </c>
       <c r="W13" t="n">
-        <v>1007.357599390305</v>
+        <v>1161.599138544316</v>
       </c>
       <c r="X13" t="n">
-        <v>779.3680484922876</v>
+        <v>933.6095876462982</v>
       </c>
       <c r="Y13" t="n">
-        <v>558.5754693487575</v>
+        <v>712.8170085027681</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5263,34 +5263,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823789</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5323,7 +5323,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5360,22 +5360,22 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619858</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>581.2185435662825</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5466,22 +5466,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V16" t="n">
-        <v>1098.625264501261</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W16" t="n">
-        <v>809.2080944642998</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X16" t="n">
-        <v>581.2185435662825</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>581.2185435662825</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5527,40 +5527,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2375.989236263799</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>2786.879505108312</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>3128.721707800139</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>3436.041841080101</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>3765.904468744134</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>4045.444533962831</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>4565.745155698579</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014293</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U19" t="n">
-        <v>1009.867621687013</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V19" t="n">
-        <v>755.1831334811264</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W19" t="n">
-        <v>727.647686332073</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>499.6581354340557</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5819,40 +5819,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701562</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619851</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609669</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>731.31772835508</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>727.647686332073</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>499.6581354340557</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y22" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6001,40 +6001,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="24">
@@ -6068,28 +6068,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>412.6079778147081</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>659.3731057211722</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M24" t="n">
-        <v>966.693239001134</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1771.104817265285</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6147,16 +6147,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6177,22 +6177,22 @@
         <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557903</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U25" t="n">
-        <v>1271.749344574921</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>1017.064856369034</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>727.647686332073</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>499.6581354340557</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155906</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805486</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6293,40 +6293,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701562</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L27" t="n">
-        <v>891.4406401619851</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M27" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>566.6879222525852</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="C28" t="n">
-        <v>397.7517393246783</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="D28" t="n">
-        <v>247.6350999123426</v>
+        <v>515.5693341162779</v>
       </c>
       <c r="E28" t="n">
-        <v>247.6350999123426</v>
+        <v>367.6562405338848</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123426</v>
+        <v>367.6562405338848</v>
       </c>
       <c r="G28" t="n">
         <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
         <v>779.0639759471194</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1334.286464455408</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1110.501049244914</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U28" t="n">
-        <v>821.372410458472</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>566.6879222525852</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W28" t="n">
-        <v>566.6879222525852</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="X28" t="n">
-        <v>566.6879222525852</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="Y28" t="n">
-        <v>566.6879222525852</v>
+        <v>665.6859735286137</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6448,67 +6448,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>570.0299571250974</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L30" t="n">
-        <v>816.7950850315615</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M30" t="n">
-        <v>1124.115218311523</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1453.977845975556</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T31" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U31" t="n">
-        <v>1187.901630733387</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V31" t="n">
-        <v>933.2171425274998</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="W31" t="n">
-        <v>643.7999724905393</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="X31" t="n">
-        <v>415.8104215925219</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y31" t="n">
-        <v>415.8104215925219</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
         <v>1701.09316900344</v>
@@ -6688,22 +6688,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6715,34 +6715,34 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6767,40 +6767,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>412.6079778147081</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>966.6932390011336</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1296.555866665166</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>527.0436439308535</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>527.0436439308535</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6861,13 +6861,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>1187.92115703528</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>1187.92115703528</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>933.2366688293931</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>755.0331948288708</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>527.0436439308535</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>527.0436439308535</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6922,34 +6922,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6958,7 +6958,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6982,7 +6982,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7004,40 +7004,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>233.7852434110091</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>644.6755122555218</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>618.0053231677515</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>449.0691402398446</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>298.9525008275089</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
         <v>97.21709146028584</v>
@@ -7098,13 +7098,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>1275.130855347408</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>1020.446367141521</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>1020.446367141521</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>1020.446367141521</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>799.6537879979912</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155897</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805478</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643324</v>
@@ -7198,28 +7198,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7241,40 +7241,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>412.6079778147081</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
-        <v>966.6932390011336</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1771.104817265284</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1301.12275119798</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1077.337335987485</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U40" t="n">
-        <v>788.2086972010437</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V40" t="n">
-        <v>533.5242089951569</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W40" t="n">
-        <v>244.1070389581962</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X40" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7402,7 +7402,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7411,28 +7411,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7478,40 +7478,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>527.8027887886592</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>527.8027887886592</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>527.8027887886592</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>379.8896952062661</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7572,13 +7572,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>964.1357418247858</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>964.1357418247858</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>709.4512536188989</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>709.4512536188989</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>709.4512536188989</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>709.4512536188989</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7639,31 +7639,31 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
         <v>4454.632848899128</v>
@@ -7672,7 +7672,7 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7715,40 +7715,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
         <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011507</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,16 +8294,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>327.4218609627882</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516226</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8543,13 +8543,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451747</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8771,16 +8771,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>349.7653003338568</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9008,25 +9008,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>96.03744927814472</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9421,7 +9421,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.314990659903</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>96.03744927814625</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9728,19 +9728,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>73.53204524669951</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>277.6717966208054</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9880,7 +9880,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504486</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298287</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>96.03744927814625</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208057</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>159.0121003135246</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>277.6717966208057</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10442,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>234.4116509503169</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208057</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>96.03744927814714</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208057</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10837,7 +10837,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627466</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10913,19 +10913,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>73.53204524670076</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>277.6717966208057</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11138,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>124.3400780863229</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>277.6717966208057</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11314,13 +11314,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714841</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208057</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,16 +23466,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>42.78963898986382</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>226.078845017773</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23655,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,10 +23664,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23706,13 +23706,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>53.77035731135584</v>
+        <v>14.74113413690318</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23940,10 +23940,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>259.2629056590281</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>282.8896567338141</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>75.26883114644332</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24417,10 +24417,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518767</v>
       </c>
       <c r="U25" t="n">
-        <v>61.34209567542487</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24603,19 +24603,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>47.67263924805081</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>144.9016543459259</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24852,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24888,22 +24888,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>88.29721137609982</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>146.4805103800781</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25080,7 +25080,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>110.1015590760739</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>113.209475836396</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25362,25 +25362,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25560,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>2.105225817279688</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25794,19 +25794,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>124.9082441462189</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26073,10 +26073,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T46" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>659455.824498083</v>
+        <v>659455.8244980831</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>659455.8244980831</v>
+        <v>659455.824498083</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>659455.8244980831</v>
+        <v>659455.824498083</v>
       </c>
     </row>
     <row r="14">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="C2" t="n">
         <v>759463.6371244622</v>
@@ -26322,40 +26322,40 @@
         <v>759463.6371244623</v>
       </c>
       <c r="E2" t="n">
-        <v>723403.7605147617</v>
+        <v>723403.7605147613</v>
       </c>
       <c r="F2" t="n">
+        <v>723403.7605147616</v>
+      </c>
+      <c r="G2" t="n">
+        <v>723403.760514761</v>
+      </c>
+      <c r="H2" t="n">
         <v>723403.7605147611</v>
       </c>
-      <c r="G2" t="n">
-        <v>723403.7605147616</v>
-      </c>
-      <c r="H2" t="n">
-        <v>723403.7605147614</v>
-      </c>
       <c r="I2" t="n">
-        <v>723403.7605147613</v>
+        <v>723403.7605147612</v>
       </c>
       <c r="J2" t="n">
         <v>723403.7605147614</v>
       </c>
       <c r="K2" t="n">
-        <v>723403.7605147612</v>
+        <v>723403.7605147617</v>
       </c>
       <c r="L2" t="n">
+        <v>723403.7605147614</v>
+      </c>
+      <c r="M2" t="n">
+        <v>723403.7605147614</v>
+      </c>
+      <c r="N2" t="n">
+        <v>723403.7605147616</v>
+      </c>
+      <c r="O2" t="n">
         <v>723403.7605147613</v>
       </c>
-      <c r="M2" t="n">
-        <v>723403.7605147611</v>
-      </c>
-      <c r="N2" t="n">
-        <v>723403.7605147613</v>
-      </c>
-      <c r="O2" t="n">
-        <v>723403.7605147617</v>
-      </c>
       <c r="P2" t="n">
-        <v>723403.7605147612</v>
+        <v>723403.7605147614</v>
       </c>
     </row>
     <row r="3">
@@ -26365,31 +26365,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.434074986013002e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768958</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.42310613632435e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26401,7 +26401,7 @@
         <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.719411881429275e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.66962143915</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.66962143902</v>
       </c>
       <c r="K4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="M4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="N4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="O4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="P4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
     </row>
     <row r="5">
@@ -26472,43 +26472,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="K5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26527,43 +26527,43 @@
         <v>519829.6008098301</v>
       </c>
       <c r="D6" t="n">
-        <v>519829.6008098302</v>
+        <v>519829.6008098301</v>
       </c>
       <c r="E6" t="n">
-        <v>91210.72846770973</v>
+        <v>90236.13720798815</v>
       </c>
       <c r="F6" t="n">
-        <v>616370.7649446054</v>
+        <v>615396.1736848842</v>
       </c>
       <c r="G6" t="n">
-        <v>616370.7649446056</v>
+        <v>615396.1736848836</v>
       </c>
       <c r="H6" t="n">
-        <v>616370.7649446058</v>
+        <v>615396.1736848837</v>
       </c>
       <c r="I6" t="n">
-        <v>616370.7649446056</v>
+        <v>615396.1736848835</v>
       </c>
       <c r="J6" t="n">
-        <v>439947.5457520129</v>
+        <v>438972.954492291</v>
       </c>
       <c r="K6" t="n">
-        <v>616370.7649446056</v>
+        <v>615396.1736848843</v>
       </c>
       <c r="L6" t="n">
-        <v>616370.7649446056</v>
+        <v>615396.1736848841</v>
       </c>
       <c r="M6" t="n">
-        <v>481569.7497107683</v>
+        <v>480595.158451047</v>
       </c>
       <c r="N6" t="n">
-        <v>616370.7649446056</v>
+        <v>615396.1736848842</v>
       </c>
       <c r="O6" t="n">
-        <v>616370.764944606</v>
+        <v>615396.173684884</v>
       </c>
       <c r="P6" t="n">
-        <v>616370.7649446055</v>
+        <v>615396.1736848841</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26724,10 +26724,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5.899264851786594e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.899264851786594e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.743664217087</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
@@ -26752,34 +26752,34 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26813,7 +26813,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26943,7 +26943,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.899264851786594e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,19 +27384,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>284.5980030001232</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>359.5190568913881</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,22 +27426,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>56.56074171963118</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>208.819789884688</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27621,19 +27621,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>127.0822056110013</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27675,7 +27675,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>172.3991639903186</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>38.46332039683753</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27827,16 +27827,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>125.133230616595</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27867,7 +27867,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>235.3565942472084</v>
+        <v>380.1738880494505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27900,19 +27900,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,16 +28013,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>107.5829646831818</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853696</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491425</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>176.5736614937241</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28821,7 +28821,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340047</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554472</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727437</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081579</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630672</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338307</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119868</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954669</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044139</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633806</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727386</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473559</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141116</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188921</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890692</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396483</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478009</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983124</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923049</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479579</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034986</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131474</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372668</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619158</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078616</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644448</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492007</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813582</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302246</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246925</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917251</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175852</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383808</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678013</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695337</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197226</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315613</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
         <v>34.18755300444946</v>
@@ -32709,40 +32709,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
@@ -32794,19 +32794,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710957</v>
@@ -32815,13 +32815,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q25" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H26" t="n">
         <v>34.18755300444946</v>
@@ -32958,13 +32958,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647497</v>
@@ -32979,7 +32979,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33034,7 +33034,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
         <v>464.5362854813463</v>
@@ -33055,7 +33055,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33095,10 +33095,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
         <v>45.03122946298631</v>
@@ -33107,10 +33107,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M28" t="n">
         <v>234.725964217132</v>
@@ -33119,7 +33119,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
@@ -33131,13 +33131,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>365.2844632307148</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
@@ -35175,25 +35175,25 @@
         <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343421</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435304</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492239</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530454</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.93761631168</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898691</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770697</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.441326826294</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355116</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.58174042459</v>
       </c>
       <c r="P9" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735648</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.8110948137342</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713961</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535657</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458881</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873156</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35491,16 +35491,16 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>345.2951542341712</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>682.9598737318697</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411082</v>
@@ -35512,7 +35512,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>345.2951542341691</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714619</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502032</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>345.2951542341706</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714619</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>355.8957474878077</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>484.7652115523302</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686869</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
@@ -36524,19 +36524,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109055</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
         <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>345.2951542341706</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714619</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
@@ -36761,7 +36761,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056037</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K30" t="n">
-        <v>309.5875389014639</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O33" t="n">
-        <v>516.775353191425</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>137.9476282330538</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951484</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O39" t="n">
-        <v>355.8957474878089</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>434.7644551367891</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109137</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3853445.9810645</v>
+        <v>3858385.243913532</v>
       </c>
     </row>
     <row r="7">
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>43.31785343914003</v>
+        <v>43.31785343913981</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>26.53815412835747</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>196.8405671533559</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>128.7835007017903</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>205.1478855987996</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>33.61028197134453</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481162</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>186.8146045421043</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1195,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250816</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229327</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
-        <v>59.66385641544604</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417126</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051985</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1530,22 +1530,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>39.84525176087188</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -1584,10 +1584,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>26.05879830605499</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1666,7 +1666,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065123</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>237.3965091869248</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>118.4898845065119</v>
+        <v>118.4898845065123</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2098,10 +2098,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065123</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>143.3158222056515</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>118.4898845065126</v>
+        <v>118.4898845065123</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896906</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113193</v>
+        <v>305.2872491113181</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2718,19 +2718,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>118.8209292153268</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>33.3514698018588</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>140.0424879565129</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>101.0401455526227</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>115.5269768002183</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3249,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>211.2541671901481</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>115.5269768002183</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>139.153727875004</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>143.3158222056519</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002183</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750042</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4403,7 +4403,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4412,22 +4412,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4494,34 +4494,34 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
         <v>684.3735766921516</v>
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>631.906440948188</v>
+        <v>1249.712458167646</v>
       </c>
       <c r="C5" t="n">
-        <v>631.906440948188</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>273.6407423414375</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>273.6407423414375</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>266.695241592234</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>252.7718375308249</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519315</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>1782.111371249201</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>1408.645612988121</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y5" t="n">
-        <v>1018.50628101231</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="6">
@@ -4643,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>184.027325963587</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036446</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005476</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>184.027325963587</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="X7" t="n">
-        <v>184.027325963587</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="Y7" t="n">
-        <v>184.027325963587</v>
+        <v>520.9088977430002</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>944.461475247922</v>
+        <v>597.2403795762991</v>
       </c>
       <c r="C8" t="n">
-        <v>575.4989583075103</v>
+        <v>228.2778626358873</v>
       </c>
       <c r="D8" t="n">
-        <v>575.4989583075103</v>
+        <v>228.2778626358873</v>
       </c>
       <c r="E8" t="n">
-        <v>575.4989583075103</v>
+        <v>228.2778626358873</v>
       </c>
       <c r="F8" t="n">
-        <v>568.5534575583068</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533144</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548717</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548717</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548717</v>
+        <v>2332.269982582792</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186808</v>
+        <v>2078.508197220883</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.295728843238</v>
+        <v>1747.445309877312</v>
       </c>
       <c r="W8" t="n">
-        <v>1704.527073573124</v>
+        <v>1747.445309877312</v>
       </c>
       <c r="X8" t="n">
-        <v>1331.061315312044</v>
+        <v>1373.979551616233</v>
       </c>
       <c r="Y8" t="n">
-        <v>1331.061315312044</v>
+        <v>983.8402196404209</v>
       </c>
     </row>
     <row r="9">
@@ -4880,16 +4880,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204944</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.447464661593</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.063382757265</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064349</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477912</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658212</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502504</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594906</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5065,28 +5065,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="12">
@@ -5117,7 +5117,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256435</v>
@@ -5129,19 +5129,19 @@
         <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>841.863114014129</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1517.99338900868</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1797.533454227377</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>712.8170085027681</v>
+        <v>306.4010034395785</v>
       </c>
       <c r="C13" t="n">
-        <v>712.8170085027681</v>
+        <v>137.4648205116716</v>
       </c>
       <c r="D13" t="n">
-        <v>562.7003690904323</v>
+        <v>137.4648205116716</v>
       </c>
       <c r="E13" t="n">
-        <v>562.7003690904323</v>
+        <v>137.4648205116716</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>137.4648205116716</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>1187.92115703528</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V13" t="n">
-        <v>1161.599138544316</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W13" t="n">
-        <v>1161.599138544316</v>
+        <v>755.183133481126</v>
       </c>
       <c r="X13" t="n">
-        <v>933.6095876462982</v>
+        <v>527.1935825831087</v>
       </c>
       <c r="Y13" t="n">
-        <v>712.8170085027681</v>
+        <v>306.4010034395785</v>
       </c>
     </row>
     <row r="14">
@@ -5275,52 +5275,52 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614725</v>
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,22 +5454,22 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U16" t="n">
-        <v>1075.21084526296</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V16" t="n">
         <v>835.416391538794</v>
@@ -5481,7 +5481,7 @@
         <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,49 +5500,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>634.0455001582209</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>880.810628064685</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P18" t="n">
         <v>2317.834075963124</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,16 +5691,16 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
         <v>1379.229518531123</v>
@@ -5718,7 +5718,7 @@
         <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5828,25 +5828,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
         <v>2317.834075963124</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706318</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336712</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>241.9805482336712</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514095</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6001,40 +6001,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6056,16 +6056,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126483</v>
@@ -6074,7 +6074,7 @@
         <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6192,7 +6192,7 @@
         <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155906</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805486</v>
+        <v>488.1932370805473</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6250,28 +6250,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6293,25 +6293,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571611</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643587</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>665.6859735286137</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C28" t="n">
-        <v>665.6859735286137</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D28" t="n">
-        <v>515.5693341162779</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E28" t="n">
-        <v>367.6562405338848</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>367.6562405338848</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557903</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V28" t="n">
-        <v>955.1031435655742</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W28" t="n">
-        <v>665.6859735286137</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X28" t="n">
-        <v>665.6859735286137</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y28" t="n">
-        <v>665.6859735286137</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6478,37 +6478,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6530,25 +6530,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571611</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
         <v>1228.513823643587</v>
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
         <v>779.0639759471194</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>964.1357418247865</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U31" t="n">
-        <v>675.0071030383447</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V31" t="n">
-        <v>420.3226148324578</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W31" t="n">
-        <v>278.8655562905255</v>
+        <v>720.4504516500526</v>
       </c>
       <c r="X31" t="n">
-        <v>278.8655562905255</v>
+        <v>492.4609007520353</v>
       </c>
       <c r="Y31" t="n">
-        <v>278.8655562905255</v>
+        <v>390.400147668578</v>
       </c>
     </row>
     <row r="32">
@@ -6779,7 +6779,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
         <v>674.428562457161</v>
@@ -6861,10 +6861,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
         <v>779.0639759471194</v>
@@ -6885,22 +6885,22 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y34" t="n">
         <v>97.21709146028584</v>
@@ -6928,7 +6928,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6946,19 +6946,19 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6973,13 +6973,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614725</v>
@@ -7016,7 +7016,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
         <v>674.428562457161</v>
@@ -7098,10 +7098,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
         <v>779.0639759471194</v>
@@ -7122,22 +7122,22 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>755.1831334811264</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>465.7659634441658</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>237.7764125461485</v>
       </c>
       <c r="Y37" t="n">
         <v>97.21709146028584</v>
@@ -7162,7 +7162,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
         <v>488.1932370805469</v>
@@ -7253,7 +7253,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
         <v>674.428562457161</v>
@@ -7271,10 +7271,10 @@
         <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7335,10 +7335,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
         <v>779.0639759471194</v>
@@ -7359,19 +7359,19 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765191</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706323</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>241.9805482336716</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
         <v>97.21709146028584</v>
@@ -7399,7 +7399,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
         <v>488.1932370805469</v>
@@ -7411,13 +7411,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515096</v>
@@ -7490,7 +7490,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
         <v>674.428562457161</v>
@@ -7508,10 +7508,10 @@
         <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7572,10 +7572,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
         <v>779.0639759471194</v>
@@ -7639,10 +7639,10 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7727,7 +7727,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
         <v>674.428562457161</v>
@@ -7809,10 +7809,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
         <v>779.0639759471194</v>
@@ -7833,7 +7833,7 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
         <v>1158.436939387592</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8303,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516226</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451747</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8777,22 +8777,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>349.7653003338568</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>223.6742649934472</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208054</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298287</v>
+        <v>65.71641987298014</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208057</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208057</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208057</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208057</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208057</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208057</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208057</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23418,22 +23418,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>126.6483167025057</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,10 +23472,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>226.078845017773</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23703,16 +23703,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>103.0576765518769</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>14.74113413690318</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0576765518774</v>
+        <v>103.0576765518769</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>103.0576765518769</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>75.26883114644332</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24417,7 +24417,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0576765518767</v>
+        <v>103.0576765518769</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>47.67263924805081</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24858,7 +24858,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>146.4805103800781</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>117.5445077994721</v>
       </c>
     </row>
     <row r="32">
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>82.393833183385</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>75.26883114644286</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25362,10 +25362,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>82.393833183385</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>79.43092547709077</v>
       </c>
     </row>
     <row r="38">
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -26073,10 +26073,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>82.393833183385</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>82.39383318338503</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>659455.8244980831</v>
+        <v>659455.824498083</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>659455.824498083</v>
+        <v>659455.8244980831</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>659455.824498083</v>
+        <v>659455.8244980831</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>659455.824498083</v>
+        <v>659455.8244980831</v>
       </c>
     </row>
     <row r="9">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="C2" t="n">
         <v>759463.6371244622</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244621</v>
       </c>
       <c r="E2" t="n">
+        <v>723403.7605147618</v>
+      </c>
+      <c r="F2" t="n">
+        <v>723403.7605147617</v>
+      </c>
+      <c r="G2" t="n">
         <v>723403.7605147613</v>
       </c>
-      <c r="F2" t="n">
-        <v>723403.7605147616</v>
-      </c>
-      <c r="G2" t="n">
-        <v>723403.760514761</v>
-      </c>
       <c r="H2" t="n">
-        <v>723403.7605147611</v>
+        <v>723403.7605147614</v>
       </c>
       <c r="I2" t="n">
         <v>723403.7605147612</v>
@@ -26340,22 +26340,22 @@
         <v>723403.7605147614</v>
       </c>
       <c r="K2" t="n">
-        <v>723403.7605147617</v>
+        <v>723403.7605147614</v>
       </c>
       <c r="L2" t="n">
         <v>723403.7605147614</v>
       </c>
       <c r="M2" t="n">
-        <v>723403.7605147614</v>
+        <v>723403.7605147613</v>
       </c>
       <c r="N2" t="n">
-        <v>723403.7605147616</v>
+        <v>723403.7605147613</v>
       </c>
       <c r="O2" t="n">
+        <v>723403.7605147612</v>
+      </c>
+      <c r="P2" t="n">
         <v>723403.7605147613</v>
-      </c>
-      <c r="P2" t="n">
-        <v>723403.7605147614</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.434074986013002e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768958</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.42310613632435e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
-        <v>4.719411881429275e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26426,13 +26426,13 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143905</v>
       </c>
       <c r="F4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="H4" t="n">
         <v>15045.6696214391</v>
@@ -26441,10 +26441,10 @@
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143902</v>
+        <v>15045.66962143913</v>
       </c>
       <c r="K4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="L4" t="n">
         <v>15045.66962143909</v>
@@ -26472,28 +26472,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-70138.27840471434</v>
+        <v>-70138.27840471402</v>
       </c>
       <c r="C6" t="n">
         <v>519829.6008098301</v>
       </c>
       <c r="D6" t="n">
-        <v>519829.6008098301</v>
+        <v>519829.60080983</v>
       </c>
       <c r="E6" t="n">
-        <v>90236.13720798815</v>
+        <v>91113.26934173769</v>
       </c>
       <c r="F6" t="n">
-        <v>615396.1736848842</v>
+        <v>616273.3058186339</v>
       </c>
       <c r="G6" t="n">
-        <v>615396.1736848836</v>
+        <v>616273.3058186335</v>
       </c>
       <c r="H6" t="n">
-        <v>615396.1736848837</v>
+        <v>616273.3058186336</v>
       </c>
       <c r="I6" t="n">
-        <v>615396.1736848835</v>
+        <v>616273.3058186334</v>
       </c>
       <c r="J6" t="n">
-        <v>438972.954492291</v>
+        <v>439850.0866260407</v>
       </c>
       <c r="K6" t="n">
-        <v>615396.1736848843</v>
+        <v>616273.3058186336</v>
       </c>
       <c r="L6" t="n">
-        <v>615396.1736848841</v>
+        <v>616273.3058186336</v>
       </c>
       <c r="M6" t="n">
-        <v>480595.158451047</v>
+        <v>481472.2905847962</v>
       </c>
       <c r="N6" t="n">
-        <v>615396.1736848842</v>
+        <v>616273.3058186335</v>
       </c>
       <c r="O6" t="n">
-        <v>615396.173684884</v>
+        <v>616273.3058186334</v>
       </c>
       <c r="P6" t="n">
-        <v>615396.1736848841</v>
+        <v>616273.3058186335</v>
       </c>
     </row>
   </sheetData>
@@ -26709,25 +26709,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.899264851786594e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>5.899264851786594e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.743664217087</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26813,7 +26813,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26943,7 +26943,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.899264851786594e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27596,7 +27596,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>208.819789884688</v>
+        <v>208.8197898846882</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>338.7347376426501</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>127.0822056110013</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27776,13 +27776,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>38.46332039683753</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27833,10 +27833,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>81.37511273779137</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27867,10 +27867,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>380.1738880494505</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>29.63371581555344</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
-        <v>107.5829646831818</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,16 +28025,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853696</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491425</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -29289,7 +29289,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>8.444841250298201e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340047</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554472</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727437</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081579</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630672</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338307</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119868</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954669</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044139</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633806</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727386</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473559</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141116</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188921</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890692</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396483</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478009</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983124</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923049</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479579</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034986</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131474</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372668</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619158</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078616</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644448</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492007</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813582</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302246</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246925</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917251</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175852</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383808</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678013</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695337</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197226</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315613</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,10 +32165,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
         <v>34.18755300444946</v>
@@ -32709,40 +32709,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304442</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565521</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
@@ -32794,19 +32794,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458551</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710957</v>
@@ -32815,13 +32815,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
         <v>34.18755300444946</v>
@@ -32958,13 +32958,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647497</v>
@@ -32979,7 +32979,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33034,7 +33034,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
         <v>464.5362854813463</v>
@@ -33055,7 +33055,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33095,10 +33095,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
         <v>45.03122946298631</v>
@@ -33107,10 +33107,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
         <v>234.725964217132</v>
@@ -33119,7 +33119,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
@@ -33131,13 +33131,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
         <v>34.18755300444946</v>
@@ -33195,13 +33195,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647497</v>
@@ -33216,7 +33216,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33271,7 +33271,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
         <v>464.5362854813463</v>
@@ -33292,7 +33292,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33332,10 +33332,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
         <v>45.03122946298631</v>
@@ -33344,10 +33344,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
         <v>234.725964217132</v>
@@ -33356,7 +33356,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
@@ -33368,13 +33368,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
         <v>34.18755300444946</v>
@@ -33432,13 +33432,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647497</v>
@@ -33453,7 +33453,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33508,7 +33508,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
         <v>464.5362854813463</v>
@@ -33529,7 +33529,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33569,10 +33569,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
         <v>45.03122946298631</v>
@@ -33581,10 +33581,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
         <v>234.725964217132</v>
@@ -33593,7 +33593,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
@@ -33605,13 +33605,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
         <v>34.18755300444946</v>
@@ -33669,13 +33669,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647497</v>
@@ -33690,7 +33690,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33745,7 +33745,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
         <v>464.5362854813463</v>
@@ -33766,7 +33766,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33806,10 +33806,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
         <v>45.03122946298631</v>
@@ -33818,10 +33818,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
         <v>234.725964217132</v>
@@ -33830,7 +33830,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33842,13 +33842,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
         <v>34.18755300444946</v>
@@ -33906,13 +33906,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647497</v>
@@ -33927,7 +33927,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33982,7 +33982,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
         <v>464.5362854813463</v>
@@ -34003,7 +34003,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34043,10 +34043,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
         <v>45.03122946298631</v>
@@ -34055,10 +34055,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
         <v>234.725964217132</v>
@@ -34067,7 +34067,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34079,13 +34079,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
         <v>34.18755300444946</v>
@@ -34143,13 +34143,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647497</v>
@@ -34164,7 +34164,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34219,7 +34219,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
         <v>464.5362854813463</v>
@@ -34240,7 +34240,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34280,10 +34280,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
         <v>45.03122946298631</v>
@@ -34292,10 +34292,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
         <v>234.725964217132</v>
@@ -34304,7 +34304,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34316,13 +34316,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
         <v>34.18755300444946</v>
@@ -34380,13 +34380,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647497</v>
@@ -34401,7 +34401,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34456,7 +34456,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
         <v>464.5362854813463</v>
@@ -34477,7 +34477,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34517,10 +34517,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
         <v>45.03122946298631</v>
@@ -34529,10 +34529,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
         <v>234.725964217132</v>
@@ -34541,7 +34541,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
@@ -34553,13 +34553,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35023,16 +35023,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279164</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343421</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435304</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492239</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530454</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.93761631168</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898691</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770697</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.441326826294</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355116</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.58174042459</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735648</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137342</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713961</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535657</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458881</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873156</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35497,22 +35497,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>682.9598737318697</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35649,28 +35649,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,28 +35965,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>374.2497035813865</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,28 +36202,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523302</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686869</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
@@ -36524,19 +36524,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
@@ -36606,19 +36606,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005179</v>
@@ -36685,19 +36685,19 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523304</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686868</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
@@ -36761,7 +36761,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056037</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
@@ -36843,19 +36843,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005179</v>
@@ -36922,19 +36922,19 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523304</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686868</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
@@ -36998,7 +36998,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
         <v>273.2768778056037</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
@@ -37080,13 +37080,13 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
         <v>350.4995841502049</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005179</v>
@@ -37159,19 +37159,19 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523304</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686868</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
@@ -37235,7 +37235,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
         <v>273.2768778056037</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
@@ -37314,22 +37314,22 @@
         <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005179</v>
@@ -37396,19 +37396,19 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523304</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686868</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
@@ -37472,7 +37472,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
         <v>273.2768778056037</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
@@ -37554,13 +37554,13 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
         <v>350.4995841502049</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005179</v>
@@ -37633,19 +37633,19 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523304</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
@@ -37709,7 +37709,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
         <v>273.2768778056037</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
@@ -37788,22 +37788,22 @@
         <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005179</v>
@@ -37870,19 +37870,19 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523304</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
@@ -37946,7 +37946,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
         <v>273.2768778056037</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
@@ -38028,13 +38028,13 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
         <v>350.4995841502049</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005179</v>
@@ -38107,19 +38107,19 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523304</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686868</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
@@ -38183,7 +38183,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
         <v>273.2768778056037</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
